--- a/Alemão.xlsx
+++ b/Alemão.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\PC- Notas\Alemao-Portugues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABD9DA3-9508-433B-B66C-5E6EEDA91F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="225" windowWidth="17535" windowHeight="7335" xr2:uid="{F712369D-0F16-4E49-9094-6709F798EDC7}"/>
+    <workbookView xWindow="11085" yWindow="225" windowWidth="17535" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,58 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
-  <si>
-    <t>Alemão</t>
-  </si>
-  <si>
-    <t>O homem</t>
-  </si>
-  <si>
-    <t>Os homens</t>
-  </si>
-  <si>
-    <t>A mulher</t>
-  </si>
-  <si>
-    <t>As mulheres</t>
-  </si>
-  <si>
-    <t>O menino</t>
-  </si>
-  <si>
-    <t>Os meninos</t>
-  </si>
-  <si>
-    <t>A menina</t>
-  </si>
-  <si>
-    <t>As meninas</t>
-  </si>
-  <si>
-    <t>der Mann</t>
-  </si>
-  <si>
-    <t>die Manner</t>
-  </si>
-  <si>
-    <t>die Frau</t>
-  </si>
-  <si>
-    <t>die Frauen</t>
-  </si>
-  <si>
-    <t>A criança</t>
-  </si>
-  <si>
-    <t>das Baby</t>
-  </si>
-  <si>
-    <t>der Junge ( iumé )</t>
-  </si>
-  <si>
-    <t>Números</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Ein</t>
   </si>
@@ -133,15 +81,6 @@
   </si>
   <si>
     <t>Ich bin</t>
-  </si>
-  <si>
-    <t>das Madchen</t>
-  </si>
-  <si>
-    <t>O bebê</t>
-  </si>
-  <si>
-    <t>die Kind</t>
   </si>
   <si>
     <t>Du</t>
@@ -306,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,11 +590,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9136A0-C5F1-4222-9C7E-60C415659C32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,361 +608,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
         <v>15</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" t="s">
         <v>67</v>
       </c>
-      <c r="G16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" t="s">
-        <v>87</v>
-      </c>
       <c r="L16" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" t="s">
         <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>